--- a/config_mapping.xlsx
+++ b/config_mapping.xlsx
@@ -13661,7 +13661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14691,20 +14691,60 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1 - SBC Expense Recon FY25 10.2025 (1).xlsx</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>C:\Users\saikrishna.y_jadeglo\Downloads\backend\backend\Equity Input and Output Files\1 - SBC Expense Recon FY25 10.2025 (1).xlsx</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>C:\Users\saikrishna.y_jadeglo\Downloads\backend\backend\Equity Input and Output Files\SBC_Payload_US.json</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>C:\Users\saikrishna.y_jadeglo\Downloads\backend\backend\Equity Input and Output Files\SBC_Payload_CA.json</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation sqref="D24" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"Pending,Approved,Rejected"</formula1>
     </dataValidation>
     <dataValidation sqref="D25" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"Pending,Approved,Rejected"</formula1>
     </dataValidation>
+    <dataValidation sqref="D26" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"Pending,Approved,Rejected"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C24" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C25" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C26" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -14716,7 +14756,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15325,8 +15365,35 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-01-07 15:00:18</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Reconciled_Output.xlsx</t>
+        </is>
+      </c>
+      <c r="D23" s="8" t="inlineStr">
+        <is>
+          <t>Click to Open</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="11">
+  <dataValidations count="12">
     <dataValidation sqref="E12" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"Pending,Approved,Rejected"</formula1>
     </dataValidation>
@@ -15360,6 +15427,9 @@
     <dataValidation sqref="E22" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"Pending,Approved,Rejected"</formula1>
     </dataValidation>
+    <dataValidation sqref="E23" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"Pending,Approved,Rejected"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D12" r:id="rId1"/>
@@ -15373,6 +15443,7 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D20" r:id="rId9"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D21" r:id="rId10"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D22" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D23" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
